--- a/templates/excel/act/sample.xlsx
+++ b/templates/excel/act/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">Приложение № 4  к Договору № ______  от «__» ______________ 20__г.</t>
   </si>
@@ -127,6 +127,33 @@
     <t xml:space="preserve">{diagnostic_warranty}</t>
   </si>
   <si>
+    <t xml:space="preserve">Описание </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">работ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расчета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{job_nom_row}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{job_description}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{job_price}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{job_total_price}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ответственный сотрудник  сервисного центра           </t>
   </si>
   <si>
@@ -139,52 +166,21 @@
     <t xml:space="preserve">Подпись _______________                                             </t>
   </si>
   <si>
-    <t xml:space="preserve">09.10.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование работ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Затраченное время</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стоимость, руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не возможно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование</t>
+    <t xml:space="preserve">Разбит нижний подшипник ротора.Люфт оси ротора.Гидравлическая часть в удовлетворительном состоянии.Следов работы без вды не обнаружено.Замена электромотора.</t>
   </si>
   <si>
     <t xml:space="preserve">525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма:   руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артикул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разбит нижний подшипник ротора.Люфт оси ротора.Гидравлическая часть в удовлетворительном состоянии.Следов работы без вды не обнаружено.Замена электромотора.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -267,29 +263,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FFFFFBF0"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFFFBF0"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Tahoma"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
       <family val="0"/>
@@ -300,13 +293,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -327,7 +313,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFBF0"/>
+        <bgColor rgb="FFFFFAD9"/>
       </patternFill>
     </fill>
   </fills>
@@ -372,7 +358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,56 +435,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -509,11 +459,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,7 +493,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFAD9"/>
-      <rgbColor rgb="FFFFFBF0"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -594,43 +540,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="1.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="1.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="1.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="1.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="1.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="3" t="s">
@@ -638,14 +591,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
     <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="4" t="s">
@@ -653,6 +613,8 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="4" t="s">
@@ -660,6 +622,8 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="4" t="s">
@@ -667,6 +631,8 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="4" t="s">
@@ -674,12 +640,19 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
+    </row>
     <row r="12" s="5" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="7" t="s">
@@ -696,9 +669,13 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
     <row r="15" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="9" t="s">
         <v>12</v>
@@ -710,6 +687,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="9" t="s">
@@ -718,6 +697,8 @@
       <c r="D16" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="9" t="s">
@@ -726,6 +707,8 @@
       <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="9" t="s">
@@ -738,8 +721,13 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-    </row>
-    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
+    </row>
     <row r="20" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="9" t="s">
         <v>19</v>
@@ -752,6 +740,8 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D21" s="10" t="s">
@@ -762,6 +752,8 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="9" t="s">
@@ -776,6 +768,8 @@
         <v>24</v>
       </c>
       <c r="I22" s="10"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="9" t="s">
@@ -790,6 +784,8 @@
         <v>27</v>
       </c>
       <c r="I23" s="10"/>
+      <c r="AMI23" s="0"/>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" s="12" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="13" t="s">
@@ -803,12 +799,16 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H25" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="16"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="17" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="13" t="s">
@@ -822,8 +822,13 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-    </row>
-    <row r="27" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AMI26" s="0"/>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
+    </row>
     <row r="28" s="17" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="13" t="s">
         <v>33</v>
@@ -836,154 +841,134 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-    </row>
-    <row r="29" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="29" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI29" s="0"/>
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="AMH31" s="0"/>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C32" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>41</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E33" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AMH33" s="0"/>
+      <c r="AMI33" s="0"/>
+      <c r="AMJ33" s="0"/>
+    </row>
+    <row r="34" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI34" s="0"/>
+      <c r="AMJ34" s="0"/>
+    </row>
+    <row r="35" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
+    </row>
     <row r="36" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" s="18" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="20" customFormat="true" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E38" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" s="23" customFormat="true" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="23" t="s">
+      <c r="C36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="AMI36" s="0"/>
+      <c r="AMJ36" s="0"/>
+    </row>
+    <row r="37" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C37" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" s="26" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="27"/>
-      <c r="C40" s="28" t="s">
+      <c r="AMI37" s="0"/>
+      <c r="AMJ37" s="0"/>
+    </row>
+    <row r="38" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C38" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" s="26" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" s="33" customFormat="true" ht="2.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="F42" s="34" t="s">
+      <c r="AMI38" s="0"/>
+      <c r="AMJ38" s="0"/>
+    </row>
+    <row r="39" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI39" s="0"/>
+      <c r="AMJ39" s="0"/>
+    </row>
+    <row r="40" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C40" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="AMI40" s="0"/>
+      <c r="AMJ40" s="0"/>
+    </row>
+    <row r="41" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" s="33" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="28" t="s">
+      <c r="E41" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" s="33" customFormat="true" ht="2.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="D44" s="34"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="32"/>
-    </row>
-    <row r="45" s="33" customFormat="true" ht="2.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" s="33" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" s="33" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" s="35" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AMI41" s="0"/>
+      <c r="AMJ41" s="0"/>
+    </row>
+    <row r="42" s="25" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI42" s="0"/>
+      <c r="AMJ42" s="0"/>
+    </row>
+    <row r="43" s="25" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI43" s="0"/>
+      <c r="AMJ43" s="0"/>
+    </row>
+    <row r="44" s="25" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI44" s="0"/>
+      <c r="AMJ44" s="0"/>
+    </row>
+    <row r="45" s="25" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI45" s="0"/>
+      <c r="AMJ45" s="0"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="C3:E3"/>
@@ -1005,8 +990,8 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="D26:I26"/>
     <mergeCell ref="D28:I28"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511805555555555" footer="0.511805555555555"/>

--- a/templates/excel/act/sample.xlsx
+++ b/templates/excel/act/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t xml:space="preserve">Приложение № 4  к Договору № ______  от «__» ______________ 20__г.</t>
   </si>
@@ -152,6 +152,48 @@
   </si>
   <si>
     <t xml:space="preserve">{job_total_price}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кол-во</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">детали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">деталей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{spare_nom_row}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{spare_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{spare_vendor_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{spare_quantity}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{spare_price}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{spare_total_price}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{spare_quantity_all}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{spare_total_price_all}</t>
   </si>
   <si>
     <t xml:space="preserve">Ответственный сотрудник  сервисного центра           </t>
@@ -180,7 +222,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -271,6 +313,12 @@
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -358,7 +406,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,8 +495,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -459,7 +511,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,13 +596,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ45"/>
+  <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.17"/>
@@ -901,76 +957,150 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="18" t="s">
-        <v>44</v>
-      </c>
+    <row r="36" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="AMH36" s="0"/>
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="18" t="s">
-        <v>45</v>
-      </c>
+    <row r="37" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="18" t="s">
-        <v>46</v>
+    <row r="38" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="18" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>49</v>
+    <row r="41" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C41" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="25" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C42" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="25" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="25" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" s="18" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C44" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="25" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" s="26" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
+    <row r="46" s="27" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI46" s="0"/>
+      <c r="AMJ46" s="0"/>
+    </row>
+    <row r="47" s="27" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI47" s="0"/>
+      <c r="AMJ47" s="0"/>
+    </row>
+    <row r="48" s="27" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI48" s="0"/>
+      <c r="AMJ48" s="0"/>
+    </row>
+    <row r="49" s="27" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMI49" s="0"/>
+      <c r="AMJ49" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C6:E6"/>
@@ -992,6 +1122,9 @@
     <mergeCell ref="D28:I28"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511805555555555" footer="0.511805555555555"/>
